--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1884778.057600808</v>
+        <v>1882280.891423942</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>329.0339255840361</v>
+        <v>332.2110827772195</v>
       </c>
       <c r="H11" t="n">
         <v>247.632627768728</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958331</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564637</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572726</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124464</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>251.8301946662194</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1667,7 +1667,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201512</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
         <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045264</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162684</v>
+        <v>264.6891945433889</v>
       </c>
       <c r="H17" t="n">
         <v>200.6574911501354</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.2374885509908</v>
+        <v>15.23748855099076</v>
       </c>
       <c r="T17" t="n">
-        <v>57.68543902955529</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U17" t="n">
         <v>157.0448987217169</v>
@@ -1904,10 +1904,10 @@
         <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
         <v>292.2876654188685</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475225</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144279</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102731</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938413</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F19" t="n">
-        <v>51.4707747857462</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184318</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713574</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172653066</v>
+        <v>2.402147172653002</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425679</v>
       </c>
       <c r="T19" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
         <v>158.1873700866429</v>
@@ -2065,7 +2065,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
         <v>124.6343801149097</v>
@@ -2081,19 +2081,19 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
         <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045264</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162684</v>
+        <v>264.6891945433889</v>
       </c>
       <c r="H20" t="n">
         <v>200.6574911501354</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.2374885509908</v>
+        <v>15.23748855099075</v>
       </c>
       <c r="T20" t="n">
         <v>109.9676969024351</v>
       </c>
       <c r="U20" t="n">
-        <v>104.7626408488368</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
         <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
         <v>292.2876654188685</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475225</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144279</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102731</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938413</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F22" t="n">
-        <v>51.4707747857462</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184318</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713574</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653066</v>
+        <v>2.402147172653002</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425679</v>
       </c>
       <c r="T22" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
         <v>158.1873700866429</v>
@@ -2302,7 +2302,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
         <v>124.6343801149097</v>
@@ -2318,22 +2318,22 @@
         <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834979</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
         <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045264</v>
+        <v>271.2006563476361</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162684</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099078</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>115.3197825648261</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V23" t="n">
         <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>255.290695480228</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X23" t="n">
-        <v>275.780827441284</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2876654188685</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475224</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144278</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D25" t="n">
-        <v>54.6651997810273</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938411</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574619</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184317</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713572</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653038</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425684</v>
+        <v>95.81875209425678</v>
       </c>
       <c r="T25" t="n">
         <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684278</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
         <v>158.1873700866429</v>
@@ -2539,7 +2539,7 @@
         <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
         <v>124.6343801149097</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>202.3120591488452</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>253.0545870713081</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>318.2977551524151</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>178.7194680135077</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536693</v>
@@ -2807,7 +2807,7 @@
         <v>363.946589034861</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958338</v>
+        <v>62.21262516958342</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
-        <v>114.6167436240334</v>
+        <v>204.0200353403096</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515425</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598766</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>339.2628020374611</v>
@@ -2922,7 +2922,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797676</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433883</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404358</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572834</v>
+        <v>97.77987829572837</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124565</v>
+        <v>49.37728379124568</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145489</v>
+        <v>41.95701605145491</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128495</v>
@@ -3016,7 +3016,7 @@
         <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335024</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>257.75240294372</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952989</v>
+        <v>284.9997313952988</v>
       </c>
       <c r="F32" t="n">
         <v>309.9454070647485</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121289</v>
+        <v>12.25712311121283</v>
       </c>
       <c r="T32" t="n">
         <v>106.9873314626572</v>
@@ -3086,16 +3086,16 @@
         <v>154.064533281939</v>
       </c>
       <c r="V32" t="n">
-        <v>230.821619793172</v>
+        <v>230.8216197931719</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404501</v>
+        <v>252.31033004045</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015061</v>
+        <v>272.800462001506</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790907</v>
+        <v>289.3072999790906</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497435</v>
+        <v>82.9013415049743</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166489</v>
+        <v>70.31618242166483</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124941</v>
+        <v>51.68483434124936</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960623</v>
+        <v>49.50332396960617</v>
       </c>
       <c r="F34" t="n">
-        <v>48.4904093459683</v>
+        <v>48.49040934596825</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206528</v>
+        <v>69.09516958206522</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735784</v>
+        <v>47.82437623735778</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447895</v>
+        <v>92.8383866544789</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992063</v>
+        <v>122.6183105992062</v>
       </c>
       <c r="U34" t="n">
         <v>189.2811995286499</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468651</v>
+        <v>155.207004646865</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596281</v>
+        <v>189.592359659628</v>
       </c>
       <c r="X34" t="n">
         <v>128.7790167120742</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851135</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3594,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851115</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253479</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.503041560071</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279479</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383246</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.562100870523</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010752</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846433</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482641</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092339</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621595</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333706</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1983.207425607999</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C11" t="n">
-        <v>1661.694541615661</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D11" t="n">
-        <v>1350.878475956984</v>
+        <v>990.5514538055336</v>
       </c>
       <c r="E11" t="n">
-        <v>1012.539856306813</v>
+        <v>652.2128341553627</v>
       </c>
       <c r="F11" t="n">
-        <v>649.0035844652784</v>
+        <v>652.2128341553627</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607999</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1983.207425607999</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5148,13 +5148,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
         <v>1525.370990471662</v>
@@ -5163,7 +5163,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052938</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254602</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D13" t="n">
         <v>535.3126933611977</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268779</v>
+        <v>434.8492327268778</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770407</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998328</v>
+        <v>215.1557144998327</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657639</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315261</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328089</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5227,13 +5227,13 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
         <v>1247.547945832861</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1640.517726580261</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1640.517726580261</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5385,13 +5385,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
         <v>1525.370990471662</v>
@@ -5400,7 +5400,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254603</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611978</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E16" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770417</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998332</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657642</v>
+        <v>116.3881606657651</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,16 +5455,16 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179563</v>
@@ -5473,13 +5473,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874604</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536555</v>
+        <v>1680.964583048797</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.71169349229</v>
+        <v>1406.901332004532</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781686</v>
+        <v>1143.534899293928</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795886</v>
+        <v>852.6459125918306</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861277</v>
+        <v>536.5592736983696</v>
       </c>
       <c r="G17" t="n">
         <v>269.1964509272697</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032411</v>
       </c>
       <c r="T17" t="n">
-        <v>3251.946298800538</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.315087970521</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V17" t="n">
-        <v>2857.151466523097</v>
+        <v>2804.341105035338</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149129</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784196</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.475518704531</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,7 +5607,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5622,13 +5622,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
         <v>1525.370990471662</v>
@@ -5637,7 +5637,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687818</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370214</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208322</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345856</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328218</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036873</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769157</v>
+        <v>68.93852771769147</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>171.345640474436</v>
+        <v>139.62761335334</v>
       </c>
       <c r="K19" t="n">
-        <v>362.6672652469196</v>
+        <v>330.9492381258235</v>
       </c>
       <c r="L19" t="n">
-        <v>611.38787967409</v>
+        <v>579.6698525529939</v>
       </c>
       <c r="M19" t="n">
-        <v>778.8203609732877</v>
+        <v>747.1023338521916</v>
       </c>
       <c r="N19" t="n">
-        <v>1011.421941386853</v>
+        <v>1011.421941386852</v>
       </c>
       <c r="O19" t="n">
-        <v>1242.351061109856</v>
+        <v>1242.351061109855</v>
       </c>
       <c r="P19" t="n">
-        <v>1434.312834367428</v>
+        <v>1434.312834367427</v>
       </c>
       <c r="Q19" t="n">
-        <v>1540.244372230782</v>
+        <v>1540.244372230781</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780894</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802684</v>
+        <v>1127.354742802683</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929436</v>
+        <v>967.5695204929427</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521295</v>
+        <v>773.0516163521287</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502587</v>
+        <v>639.961331350258</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.068018102875</v>
+        <v>514.0680181028745</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048797</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004532</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293928</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795875</v>
+        <v>852.6459125918309</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861265</v>
+        <v>536.5592736983699</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272697</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5783,19 +5783,19 @@
         <v>3199.13593731278</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.31508797052</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V20" t="n">
-        <v>2857.151466523096</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.47551870453</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811068</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999798</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387287</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332731</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601582</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,7 +5844,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
@@ -5859,13 +5859,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W21" t="n">
         <v>1525.370990471662</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687817</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370213</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208322</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345856</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328218</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036872</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769154</v>
+        <v>68.93852771769147</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962282</v>
+        <v>171.345640474436</v>
       </c>
       <c r="K22" t="n">
-        <v>269.6564947421063</v>
+        <v>269.6564947421064</v>
       </c>
       <c r="L22" t="n">
         <v>518.3771091692768</v>
@@ -5923,37 +5923,37 @@
         <v>1043.139968507948</v>
       </c>
       <c r="O22" t="n">
-        <v>1242.351061109856</v>
+        <v>1274.069088230951</v>
       </c>
       <c r="P22" t="n">
-        <v>1434.312834367428</v>
+        <v>1466.030861488523</v>
       </c>
       <c r="Q22" t="n">
-        <v>1540.244372230782</v>
+        <v>1540.244372230781</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592248</v>
+        <v>1545.212311592247</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.425693315221</v>
+        <v>1448.42569331522</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780894</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802684</v>
+        <v>1127.354742802683</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929434</v>
+        <v>967.5695204929427</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521294</v>
+        <v>773.0516163521287</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502585</v>
+        <v>639.961331350258</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028749</v>
+        <v>514.0680181028745</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689842</v>
+        <v>1691.845990713185</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.78273966892</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958316</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328754</v>
+        <v>863.527320256218</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394144</v>
+        <v>589.5872633394142</v>
       </c>
       <c r="G23" t="n">
         <v>269.4140790805574</v>
@@ -5996,13 +5996,13 @@
         <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724557</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603894</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P23" t="n">
         <v>3029.183800961072</v>
@@ -6020,19 +6020,19 @@
         <v>3210.017344977167</v>
       </c>
       <c r="U23" t="n">
-        <v>3093.532716123807</v>
+        <v>3051.38613414715</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676384</v>
+        <v>2815.222512699726</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302416</v>
+        <v>2557.353123325758</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960825</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857818</v>
+        <v>1983.54656488116</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220694</v>
+        <v>427.536447322069</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903091</v>
+        <v>353.4995302903087</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741199</v>
+        <v>298.2821567741196</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878733</v>
+        <v>245.268329087873</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861095</v>
+        <v>193.2776474861093</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569749</v>
+        <v>120.4740767569748</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097926</v>
+        <v>69.15615587097921</v>
       </c>
       <c r="I25" t="n">
         <v>66.72974458547114</v>
       </c>
       <c r="J25" t="n">
-        <v>171.5632686277238</v>
+        <v>171.5632686277239</v>
       </c>
       <c r="K25" t="n">
-        <v>362.8848934002074</v>
+        <v>362.8848934002075</v>
       </c>
       <c r="L25" t="n">
-        <v>611.6055078273778</v>
+        <v>611.605507827378</v>
       </c>
       <c r="M25" t="n">
-        <v>872.0487596313887</v>
+        <v>872.0487596313891</v>
       </c>
       <c r="N25" t="n">
-        <v>1043.357596661236</v>
+        <v>1104.650340044952</v>
       </c>
       <c r="O25" t="n">
-        <v>1242.568689263144</v>
+        <v>1242.568689263142</v>
       </c>
       <c r="P25" t="n">
-        <v>1434.530462520716</v>
+        <v>1434.530462520714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1540.46200038407</v>
+        <v>1540.462000384068</v>
       </c>
       <c r="R25" t="n">
-        <v>1545.429939745536</v>
+        <v>1545.429939745535</v>
       </c>
       <c r="S25" t="n">
-        <v>1448.643321468509</v>
+        <v>1448.643321468508</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.775971934181</v>
+        <v>1321.77597193418</v>
       </c>
       <c r="U25" t="n">
-        <v>1127.572370955972</v>
+        <v>1127.572370955971</v>
       </c>
       <c r="V25" t="n">
-        <v>967.7871486462311</v>
+        <v>967.7871486462304</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054171</v>
+        <v>773.2692445054164</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035463</v>
+        <v>640.1789595035457</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561626</v>
+        <v>514.2856462561622</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1651.399134244647</v>
+        <v>1340.251487512674</v>
       </c>
       <c r="C26" t="n">
-        <v>1447.043518942784</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="D26" t="n">
-        <v>1136.227453284107</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="E26" t="n">
-        <v>797.8888336339357</v>
+        <v>680.3999838701649</v>
       </c>
       <c r="F26" t="n">
-        <v>434.3525617924014</v>
+        <v>316.8637120286306</v>
       </c>
       <c r="G26" t="n">
-        <v>66.72974458547114</v>
+        <v>316.8637120286306</v>
       </c>
       <c r="H26" t="n">
         <v>66.72974458547114</v>
       </c>
       <c r="I26" t="n">
-        <v>72.07396936268105</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J26" t="n">
-        <v>260.9531003217065</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K26" t="n">
-        <v>594.772474011553</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L26" t="n">
-        <v>1045.806687259962</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1579.338591931886</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N26" t="n">
-        <v>2126.117408990669</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2629.089879870005</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961072</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716755</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
         <v>3336.487229273557</v>
@@ -6260,16 +6260,16 @@
         <v>2909.037235302931</v>
       </c>
       <c r="V26" t="n">
-        <v>2625.423980907433</v>
+        <v>2653.426541291508</v>
       </c>
       <c r="W26" t="n">
-        <v>2320.104958585393</v>
+        <v>2348.107518969467</v>
       </c>
       <c r="X26" t="n">
-        <v>1994.088833272386</v>
+        <v>2022.091393656461</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.399134244647</v>
+        <v>1679.401694628722</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343956</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532686</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920175</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
-        <v>459.1365886865619</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F27" t="n">
-        <v>312.602030713447</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G27" t="n">
         <v>176.2389305460657</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393313</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
         <v>66.72974458547114</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760888</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K27" t="n">
-        <v>398.6712130564357</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3693733691008</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.645698591416</v>
+        <v>1212.645698591417</v>
       </c>
       <c r="N27" t="n">
         <v>1686.168742145871</v>
@@ -6324,7 +6324,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.271170686628</v>
+        <v>2565.271170686629</v>
       </c>
       <c r="R27" t="n">
         <v>2565.126817279144</v>
@@ -6333,16 +6333,16 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T27" t="n">
-        <v>2243.045930450479</v>
+        <v>2243.04593045048</v>
       </c>
       <c r="U27" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.825975353152</v>
+        <v>1779.825975353153</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.58861862495</v>
+        <v>1525.588618624951</v>
       </c>
       <c r="X27" t="n">
         <v>1317.737118419418</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585821</v>
+        <v>759.6838779585817</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787485</v>
+        <v>638.197327978748</v>
       </c>
       <c r="D28" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144856</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801661</v>
+        <v>435.0668608801658</v>
       </c>
       <c r="F28" t="n">
-        <v>335.626546330329</v>
+        <v>335.6265463303287</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531212</v>
+        <v>215.373342653121</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190521</v>
       </c>
       <c r="I28" t="n">
         <v>66.72974458547114</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848129</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860958</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869985</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M28" t="n">
-        <v>1162.577945038954</v>
+        <v>1162.577945038955</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997225</v>
+        <v>1550.491706997226</v>
       </c>
       <c r="O28" t="n">
         <v>1896.326691170046</v>
@@ -6418,16 +6418,16 @@
         <v>1696.96796633285</v>
       </c>
       <c r="V28" t="n">
-        <v>1489.733111075037</v>
+        <v>1489.733111075036</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X28" t="n">
         <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407485</v>
+        <v>893.882709840748</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1707.874304719605</v>
+        <v>1638.265052441605</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.361420727266</v>
+        <v>1316.752168449266</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727266</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077095</v>
+        <v>797.888833633936</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355611</v>
+        <v>434.3525617924015</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286307</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="H29" t="n">
         <v>66.72974458547114</v>
@@ -6461,25 +6461,25 @@
         <v>66.72974458547114</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444966</v>
+        <v>266.272655055595</v>
       </c>
       <c r="K29" t="n">
-        <v>589.4282492343431</v>
+        <v>600.0920287454414</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.12624199385</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.994367154677</v>
+        <v>1584.658146665775</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724557</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603894</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.520021449974</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q29" t="n">
         <v>3277.470162716755</v>
@@ -6494,19 +6494,19 @@
         <v>3115.118079081021</v>
       </c>
       <c r="U29" t="n">
-        <v>2999.343590571896</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V29" t="n">
-        <v>2715.730336176399</v>
+        <v>2625.423980907433</v>
       </c>
       <c r="W29" t="n">
-        <v>2715.730336176399</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="X29" t="n">
-        <v>2389.714210863392</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.024511835653</v>
+        <v>1977.415259557653</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E30" t="n">
         <v>459.1365886865626</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585829</v>
+        <v>759.6838779585831</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787492</v>
+        <v>638.1973279787494</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144867</v>
+        <v>535.5303215144868</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801667</v>
+        <v>435.0668608801668</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303295</v>
+        <v>335.6265463303296</v>
       </c>
       <c r="G31" t="n">
         <v>215.3733426531217</v>
@@ -6622,31 +6622,31 @@
         <v>158.3577622848132</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860961</v>
+        <v>408.850330486096</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869988</v>
+        <v>771.9155141869987</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.577945038956</v>
+        <v>1162.577945038954</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.491706997228</v>
+        <v>1550.491706997225</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.326691170048</v>
+        <v>1896.326691170045</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.439576856113</v>
+        <v>2175.439576856111</v>
       </c>
       <c r="Q31" t="n">
         <v>2299.555258261035</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966636</v>
+        <v>2257.174433966637</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.938182741535</v>
+        <v>2112.938182741536</v>
       </c>
       <c r="T31" t="n">
         <v>1938.621200259135</v>
@@ -6658,13 +6658,13 @@
         <v>1489.733111075038</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986151</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.225656036206</v>
+        <v>1067.225656036207</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407494</v>
+        <v>893.8827098407497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842703</v>
+        <v>1715.929751842704</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939628</v>
+        <v>1444.876970939629</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370214</v>
+        <v>1184.521008370215</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093057</v>
+        <v>896.6424918093066</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570344</v>
+        <v>583.5663230570354</v>
       </c>
       <c r="G32" t="n">
         <v>266.4036089393676</v>
@@ -6698,22 +6698,22 @@
         <v>66.72974458547114</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6088755444966</v>
+        <v>266.272655055595</v>
       </c>
       <c r="K32" t="n">
-        <v>589.4282492343431</v>
+        <v>600.0920287454414</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.12624199385</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.994367154677</v>
+        <v>1584.658146665775</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724557</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603894</v>
       </c>
       <c r="P32" t="n">
         <v>3029.183800961072</v>
@@ -6725,7 +6725,7 @@
         <v>3336.487229273557</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837988</v>
+        <v>3324.106296837989</v>
       </c>
       <c r="T32" t="n">
         <v>3216.038285259547</v>
@@ -6740,10 +6740,10 @@
         <v>2572.405474031708</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807964</v>
+        <v>2296.849451807965</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869489</v>
+        <v>2004.61985586949</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894226</v>
+        <v>407.0472151894223</v>
       </c>
       <c r="C34" t="n">
-        <v>336.020768298852</v>
+        <v>336.0207682988517</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238526</v>
+        <v>283.8138649238524</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787958</v>
+        <v>233.8105073787956</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182218</v>
+        <v>184.8302959182217</v>
       </c>
       <c r="G34" t="n">
         <v>115.037195330277</v>
@@ -6853,25 +6853,25 @@
         <v>66.72974458547114</v>
       </c>
       <c r="I34" t="n">
-        <v>67.30218066992474</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0862664975575</v>
+        <v>174.513830413104</v>
       </c>
       <c r="K34" t="n">
-        <v>369.3584530554213</v>
+        <v>272.8246846807743</v>
       </c>
       <c r="L34" t="n">
-        <v>621.0296292679718</v>
+        <v>524.495860893325</v>
       </c>
       <c r="M34" t="n">
-        <v>879.9168243968013</v>
+        <v>783.955492106607</v>
       </c>
       <c r="N34" t="n">
-        <v>1147.186993716842</v>
+        <v>955.2643291364545</v>
       </c>
       <c r="O34" t="n">
-        <v>1285.105342935032</v>
+        <v>1189.144010644838</v>
       </c>
       <c r="P34" t="n">
         <v>1384.05634568779</v>
@@ -6880,28 +6880,28 @@
         <v>1492.938445336524</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483371</v>
+        <v>1500.85694648337</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347534</v>
+        <v>1407.080798347533</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954396</v>
+        <v>1283.223918954395</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117376</v>
+        <v>1092.030788117375</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488252</v>
+        <v>935.2560359488245</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019492009</v>
+        <v>743.7486019492003</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885198</v>
+        <v>613.6687870885194</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.785943982326</v>
+        <v>490.7859439823256</v>
       </c>
     </row>
     <row r="35">
@@ -6926,61 +6926,61 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170933</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630297</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245372</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K37" t="n">
-        <v>350.2377232523198</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>505.947567174677</v>
+        <v>525.7713142112981</v>
       </c>
       <c r="M37" t="n">
-        <v>770.0879214996987</v>
+        <v>693.2037955104959</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.10463155537</v>
+        <v>941.3967585295485</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799384</v>
+        <v>1176.022980773562</v>
       </c>
       <c r="P37" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552144</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219656</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304681</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673507</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431766</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734898</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103806</v>
@@ -7163,55 +7163,55 @@
         <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170932</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226751</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155307</v>
       </c>
       <c r="K40" t="n">
-        <v>274.6725740832013</v>
+        <v>274.6725740832011</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313824</v>
+        <v>514.6126090571559</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564041</v>
+        <v>778.7529633821774</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.247355412076</v>
+        <v>1046.769673437849</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1184.688022656039</v>
       </c>
       <c r="P40" t="n">
-        <v>1392.824580408848</v>
+        <v>1380.346898434621</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304679</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673505</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431765</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734897</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464963</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307321</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
@@ -7454,7 +7454,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170932</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159872</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226751</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155308</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090252</v>
+        <v>371.3804471090249</v>
       </c>
       <c r="L43" t="n">
-        <v>623.7981640572063</v>
+        <v>623.798164057206</v>
       </c>
       <c r="M43" t="n">
-        <v>887.938518382228</v>
+        <v>791.2306453564038</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.247355412076</v>
+        <v>1038.104631555372</v>
       </c>
       <c r="O43" t="n">
-        <v>1197.165704630265</v>
+        <v>1272.730853799385</v>
       </c>
       <c r="P43" t="n">
-        <v>1392.824580408848</v>
+        <v>1468.389729577968</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304679</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673505</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431765</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734896</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226768</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155311</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090255</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>611.3204820829767</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M46" t="n">
-        <v>875.4608364079985</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1046.769673437846</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O46" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10276,7 +10276,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094477</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10288,7 +10288,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775437</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>34.91266345082479</v>
+        <v>31.73550625764135</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>9.450218385609332e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>55.87771033587102</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.9285103786693</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287943</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.28225787287981</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.28225787287949</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>52.2822578728801</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>41.72511615689018</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>41.72511615689082</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>115.9856960035698</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.72253478023422</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>128.9884369885829</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,16 +24734,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>89.40329171627609</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988206</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.270539643082884e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="42">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779169.6650501386</v>
+        <v>779169.6650501385</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779169.6650501386</v>
+        <v>779169.6650501385</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816880.1021376025</v>
+        <v>816880.1021376026</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816880.1021376024</v>
+        <v>816880.1021376026</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780010.0135307312</v>
+        <v>780010.0135307311</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642836</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>614457.2540377786</v>
       </c>
       <c r="D2" t="n">
-        <v>614460.1742158985</v>
+        <v>614460.1742158984</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173815</v>
+        <v>573398.257417382</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173816</v>
+        <v>573398.2574173821</v>
       </c>
       <c r="G2" t="n">
-        <v>612660.0766032012</v>
+        <v>612660.0766032011</v>
       </c>
       <c r="H2" t="n">
         <v>612660.0766032013</v>
       </c>
       <c r="I2" t="n">
-        <v>613290.3379636459</v>
+        <v>613290.3379636458</v>
       </c>
       <c r="J2" t="n">
-        <v>574028.5187778261</v>
+        <v>574028.5187778263</v>
       </c>
       <c r="K2" t="n">
-        <v>574028.5187778274</v>
+        <v>574028.5187778273</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="M2" t="n">
         <v>615781.3273982116</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982117</v>
+        <v>615781.3273982112</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982112</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982133</v>
+        <v>615781.3273982118</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655511</v>
+        <v>10420.33926655544</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.83087572</v>
+        <v>1151572.830875719</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018805717</v>
+        <v>723.3987018807429</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157041</v>
+        <v>77544.51094157051</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540876</v>
+        <v>207113.9109540875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747259</v>
+        <v>463375.0335747256</v>
       </c>
       <c r="E4" t="n">
-        <v>62485.16516868469</v>
+        <v>62485.16516868473</v>
       </c>
       <c r="F4" t="n">
-        <v>62485.16516868469</v>
+        <v>62485.16516868473</v>
       </c>
       <c r="G4" t="n">
-        <v>91416.01306755035</v>
+        <v>91416.0130675504</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.01306755033</v>
+        <v>91416.01306755038</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.6811294286</v>
+        <v>91906.68112942862</v>
       </c>
       <c r="J4" t="n">
         <v>62975.83323056294</v>
       </c>
       <c r="K4" t="n">
-        <v>62975.83323056289</v>
+        <v>62975.83323056286</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920226</v>
+        <v>93788.48670920231</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.1378265769</v>
+      </c>
+      <c r="O4" t="n">
+        <v>93774.13782657692</v>
+      </c>
+      <c r="P4" t="n">
         <v>93774.137826577</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251486</v>
+        <v>33892.84951251487</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217021</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="H5" t="n">
         <v>82204.64608217019</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866887</v>
+        <v>82370.04347866889</v>
       </c>
       <c r="J5" t="n">
         <v>78420.89071828043</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828041</v>
       </c>
       <c r="L5" t="n">
         <v>82620.59982082556</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113213.6941060475</v>
+        <v>113209.2805281794</v>
       </c>
       <c r="C6" t="n">
-        <v>113213.6941060474</v>
+        <v>113209.2805281793</v>
       </c>
       <c r="D6" t="n">
-        <v>106771.9518621026</v>
+        <v>106767.5480181614</v>
       </c>
       <c r="E6" t="n">
-        <v>-718915.2319488048</v>
+        <v>-719056.5088487398</v>
       </c>
       <c r="F6" t="n">
-        <v>432657.5989269152</v>
+        <v>432516.3220269796</v>
       </c>
       <c r="G6" t="n">
-        <v>401459.3081586066</v>
+        <v>401448.9039892898</v>
       </c>
       <c r="H6" t="n">
-        <v>439039.4174534808</v>
+        <v>439029.0132841641</v>
       </c>
       <c r="I6" t="n">
-        <v>438290.2146536679</v>
+        <v>438281.9113555524</v>
       </c>
       <c r="J6" t="n">
-        <v>432631.7948289827</v>
+        <v>432492.6188002483</v>
       </c>
       <c r="K6" t="n">
-        <v>432631.7948289842</v>
+        <v>432492.6188002495</v>
       </c>
       <c r="L6" t="n">
-        <v>361827.7299266139</v>
+        <v>361827.7299266136</v>
       </c>
       <c r="M6" t="n">
-        <v>232374.6813112971</v>
+        <v>232374.6813112973</v>
       </c>
       <c r="N6" t="n">
-        <v>439488.5922653849</v>
+        <v>439488.5922653845</v>
       </c>
       <c r="O6" t="n">
-        <v>439488.592265386</v>
+        <v>439488.5922653844</v>
       </c>
       <c r="P6" t="n">
-        <v>439488.5922653864</v>
+        <v>439488.592265385</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095689</v>
+        <v>12.16740883095727</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022924</v>
@@ -26820,16 +26820,16 @@
         <v>834.1218073183893</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696313</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511420078</v>
+        <v>0.7540815511418231</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095689</v>
+        <v>12.16740883095727</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762341</v>
+        <v>1077.60929176234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.681103486196</v>
+        <v>828.6811034861962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,34 +27874,34 @@
         <v>208.5901246298814</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050122</v>
+        <v>176.8943724050121</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682737</v>
+        <v>213.8677805682735</v>
       </c>
       <c r="L8" t="n">
-        <v>228.047386350525</v>
+        <v>228.0473863505248</v>
       </c>
       <c r="M8" t="n">
-        <v>221.757326590534</v>
+        <v>221.7573265905337</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710443</v>
+        <v>220.6851794710441</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355887</v>
+        <v>221.8567179355884</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385755</v>
+        <v>224.1990717385753</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728656</v>
+        <v>217.0235058728654</v>
       </c>
       <c r="R8" t="n">
-        <v>212.5129307991468</v>
+        <v>212.5129307991467</v>
       </c>
       <c r="S8" t="n">
-        <v>207.905437108917</v>
+        <v>207.9054371089169</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,37 +27950,37 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.6213030252546</v>
+        <v>98.62130302525458</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758399</v>
+        <v>124.3650025758398</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693652</v>
+        <v>133.6153305693651</v>
       </c>
       <c r="L9" t="n">
-        <v>132.87185549519</v>
+        <v>132.8718554951898</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091468</v>
+        <v>135.5027961091466</v>
       </c>
       <c r="N9" t="n">
-        <v>124.534965137419</v>
+        <v>124.5349651374188</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948886</v>
+        <v>136.3694007948884</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173283</v>
+        <v>128.9768164173282</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537935</v>
+        <v>136.6410168537934</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506524</v>
+        <v>144.0545809506523</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849784</v>
+        <v>171.1970486849783</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28032,34 +28032,34 @@
         <v>154.790642330327</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463084</v>
+        <v>125.4441765463083</v>
       </c>
       <c r="K10" t="n">
         <v>126.4640862875906</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202306</v>
+        <v>131.6226139202305</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628151</v>
+        <v>135.4863965628149</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250447</v>
+        <v>124.3279380250446</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599786</v>
+        <v>135.3552454599785</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296878</v>
+        <v>135.0743121296877</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959714</v>
+        <v>149.6677228959713</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332693</v>
+        <v>176.3068339332692</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545306</v>
+        <v>223.6342222545305</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J19" t="n">
-        <v>93.95027323718504</v>
+        <v>61.91186200375472</v>
       </c>
       <c r="K19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>61.91186200375577</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="R19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="K22" t="n">
-        <v>93.95027323718504</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="O22" t="n">
-        <v>61.91186200375557</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718504</v>
+        <v>61.91186200375462</v>
       </c>
       <c r="R22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718504</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29068,17 +29068,17 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>10.77149445565487</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>61.9118620037533</v>
       </c>
       <c r="O25" t="n">
-        <v>61.91186200375529</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="R25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718506</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>46.97513661859253</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29314,34 +29314,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>5.373287609988665</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>10.77149445565482</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.77149445565493</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29554,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>10.77149445565479</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
     </row>
     <row r="30">
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859242</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.77149445565493</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>10.77149445565487</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="I34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696294</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="M34" t="n">
-        <v>92.37849881780977</v>
+        <v>92.95671708493353</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696294</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.930638676963</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="R34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696294</v>
+        <v>96.930638676963</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="36">
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76.32843350416005</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242939</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>85.08100106221971</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.32843350416019</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>76.32843350416226</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.32843350416019</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810484</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>85.08100106221613</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350415953</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560555</v>
+        <v>0.04891420635560709</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393455</v>
+        <v>0.5009426158393613</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524485</v>
+        <v>1.885764940524544</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674081</v>
+        <v>4.151532121674212</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706865</v>
+        <v>6.222070476707061</v>
       </c>
       <c r="L8" t="n">
-        <v>7.71902861946223</v>
+        <v>7.719028619462474</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738731</v>
+        <v>8.588906636739001</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125546595</v>
+        <v>8.72788412554687</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098042</v>
+        <v>8.241493486098301</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016694028</v>
+        <v>7.03392401669425</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583903</v>
+        <v>5.28218400158407</v>
       </c>
       <c r="R8" t="n">
-        <v>3.07260701498531</v>
+        <v>3.072607014985407</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328363</v>
+        <v>1.114632477328398</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216634</v>
+        <v>0.2141219383216702</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448443</v>
+        <v>0.003913136508448567</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413369</v>
+        <v>0.02617140767413452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317649</v>
+        <v>0.2527607004317728</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747453925</v>
+        <v>0.9010769747454209</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826816</v>
+        <v>2.472624090826893</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993773</v>
+        <v>4.226108404993906</v>
       </c>
       <c r="L9" t="n">
-        <v>5.68252428468416</v>
+        <v>5.682524284684339</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871505</v>
+        <v>6.631237812871714</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945914271</v>
+        <v>6.806746945914486</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555835</v>
+        <v>6.226843649556031</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001898</v>
+        <v>4.997590997002056</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228013</v>
+        <v>3.340757232228118</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311564</v>
+        <v>1.624923013311615</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594566</v>
+        <v>0.4861224188594719</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268809</v>
+        <v>0.1054891388268843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456165</v>
+        <v>0.001721803136456219</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943046</v>
+        <v>0.02194122903943115</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323909</v>
+        <v>0.1950774727323971</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969312361</v>
+        <v>0.659832596931257</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087733</v>
+        <v>1.551244893087782</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944738</v>
+        <v>2.549171882944818</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007688</v>
+        <v>3.262062361007791</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789994</v>
+        <v>3.439387384790102</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188483</v>
+        <v>3.357606440188589</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864226</v>
+        <v>3.101292991864324</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459843</v>
+        <v>2.653691919459926</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83727873347449</v>
+        <v>1.837278733474548</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439002092</v>
+        <v>0.9865574439002402</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417107</v>
+        <v>0.3823757824417227</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771393011</v>
+        <v>0.09374888771393307</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241663</v>
+        <v>0.0011967943112417</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31868,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31917,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31935,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32105,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32154,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32172,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32579,7 +32579,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32628,16 +32628,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32646,19 +32646,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -34387,7 +34387,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781685</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>253.022796162912</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412322</v>
@@ -35586,7 +35586,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8924485275279</v>
+        <v>73.85403729409755</v>
       </c>
       <c r="K19" t="n">
-        <v>193.254166436852</v>
+        <v>193.2541664368521</v>
       </c>
       <c r="L19" t="n">
         <v>251.2329438658287</v>
@@ -36051,7 +36051,7 @@
         <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>234.951091326834</v>
+        <v>266.9895025602633</v>
       </c>
       <c r="O19" t="n">
         <v>233.2617370939423</v>
@@ -36063,7 +36063,7 @@
         <v>107.0015533973272</v>
       </c>
       <c r="R19" t="n">
-        <v>5.0181205671377</v>
+        <v>5.018120567137743</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>105.8924485275279</v>
       </c>
       <c r="K22" t="n">
-        <v>193.254166436852</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L22" t="n">
         <v>251.2329438658287</v>
@@ -36291,16 +36291,16 @@
         <v>266.9895025602633</v>
       </c>
       <c r="O22" t="n">
-        <v>201.2233258605128</v>
+        <v>233.2617370939423</v>
       </c>
       <c r="P22" t="n">
         <v>193.9007810682543</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.0015533973272</v>
+        <v>74.96314216389673</v>
       </c>
       <c r="R22" t="n">
-        <v>5.0181205671377</v>
+        <v>5.018120567137743</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>549.6926102858816</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750267</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8924485275279</v>
+        <v>105.892448527528</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368521</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L25" t="n">
         <v>251.2329438658288</v>
@@ -36525,10 +36525,10 @@
         <v>263.0739917212233</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>234.9510913268316</v>
       </c>
       <c r="O25" t="n">
-        <v>201.2233258605126</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
         <v>193.9007810682544</v>
@@ -36537,7 +36537,7 @@
         <v>107.0015533973273</v>
       </c>
       <c r="R25" t="n">
-        <v>5.018120567137728</v>
+        <v>5.018120567137785</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666579</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687126</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>404.1352738293605</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>70.3846929978796</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243675</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>261.5657992593743</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165867</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K31" t="n">
         <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120783</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412322</v>
@@ -37008,7 +37008,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564861</v>
+        <v>125.369375156489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243675</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>409.5334806750267</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5782182671248464</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108.8728139673058</v>
+        <v>108.8728139673059</v>
       </c>
       <c r="K34" t="n">
-        <v>196.23453187663</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056066</v>
+        <v>254.2133093056067</v>
       </c>
       <c r="M34" t="n">
-        <v>261.502217301848</v>
+        <v>262.0804355689717</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000412</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>236.2421025337203</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>196.8811465080323</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.9819188371051</v>
+        <v>109.9819188371052</v>
       </c>
       <c r="R34" t="n">
-        <v>7.998486006915613</v>
+        <v>7.99848600691567</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554021</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>175.6323267038271</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>250.6999626455077</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057493</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266726</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K40" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>242.3636716908634</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.37971366430239</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057621</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266854</v>
+        <v>1.33229981826674</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>249.3676628272406</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.37971366430239</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057507</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266925</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>242.3636716908598</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609168</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
